--- a/raw_data/20200818_saline/20200818_Sensor0_Test_88.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_88.xlsx
@@ -1,1250 +1,1666 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4533B227-89F9-4529-8E8A-E7DEBB7A4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>78303.223222</v>
+        <v>78303.223222000001</v>
       </c>
       <c r="B2" s="1">
         <v>21.750895</v>
       </c>
       <c r="C2" s="1">
-        <v>904.979000</v>
+        <v>904.97900000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.267000</v>
+        <v>-193.267</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>78313.058355</v>
+        <v>78313.058355000001</v>
       </c>
       <c r="G2" s="1">
-        <v>21.753627</v>
+        <v>21.753627000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>922.468000</v>
+        <v>922.46799999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.094000</v>
+        <v>-164.09399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>78323.522453</v>
+        <v>78323.522452999998</v>
       </c>
       <c r="L2" s="1">
-        <v>21.756534</v>
+        <v>21.756533999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>945.048000</v>
+        <v>945.048</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.974000</v>
+        <v>-118.974</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>78334.048553</v>
+        <v>78334.048553000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.759458</v>
+        <v>21.759457999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.948000</v>
+        <v>951.94799999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.984000</v>
+        <v>-103.98399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>78344.969465</v>
+        <v>78344.969465000002</v>
       </c>
       <c r="V2" s="1">
-        <v>21.762492</v>
+        <v>21.762492000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>958.777000</v>
+        <v>958.77700000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.345400</v>
+        <v>-90.345399999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>78355.724716</v>
+        <v>78355.724715999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.765479</v>
+        <v>21.765478999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.394000</v>
+        <v>966.39400000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.803100</v>
+        <v>-80.803100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>78366.224055</v>
+        <v>78366.224054999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.768396</v>
+        <v>21.768395999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.619000</v>
+        <v>971.61900000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.239400</v>
+        <v>-80.239400000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>78376.320128</v>
+        <v>78376.320128000007</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.771200</v>
+        <v>21.7712</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.686000</v>
+        <v>979.68600000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.850400</v>
+        <v>-87.850399999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>78386.884882</v>
+        <v>78386.884881999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.774135</v>
+        <v>21.774135000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.938000</v>
+        <v>988.93799999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.554000</v>
+        <v>-102.554</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>78397.866835</v>
+        <v>78397.866834999993</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.777185</v>
+        <v>21.777184999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>78409.361093</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.780378</v>
+        <v>21.780377999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.960000</v>
+        <v>1009.96</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.547000</v>
+        <v>-142.547</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>78420.303829</v>
+        <v>78420.303828999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.783418</v>
+        <v>21.783418000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1055.380000</v>
+        <v>1055.3800000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.873000</v>
+        <v>-226.87299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>78431.472744</v>
+        <v>78431.472743999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.786520</v>
+        <v>21.786519999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.789000</v>
+        <v>-361.78899999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>78442.881223</v>
+        <v>78442.881223000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.789689</v>
+        <v>21.789688999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.443000</v>
+        <v>-569.44299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>78454.027816</v>
+        <v>78454.027816000002</v>
       </c>
       <c r="BT2" s="1">
         <v>21.792786</v>
       </c>
       <c r="BU2" s="1">
-        <v>1414.090000</v>
+        <v>1414.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.365000</v>
+        <v>-790.36500000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>78464.724043</v>
+        <v>78464.724042999995</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.795757</v>
+        <v>21.795756999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1574.350000</v>
+        <v>1574.35</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1020.910000</v>
+        <v>-1020.91</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>78475.944043</v>
+        <v>78475.944042999996</v>
       </c>
       <c r="CD2" s="1">
         <v>21.798873</v>
       </c>
       <c r="CE2" s="1">
-        <v>1978.190000</v>
+        <v>1978.19</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1557.870000</v>
+        <v>-1557.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>78303.386900</v>
+        <v>78303.386899999998</v>
       </c>
       <c r="B3" s="1">
-        <v>21.750941</v>
+        <v>21.750941000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>904.919000</v>
+        <v>904.91899999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.199000</v>
+        <v>-193.19900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>78313.426386</v>
+        <v>78313.426386000006</v>
       </c>
       <c r="G3" s="1">
-        <v>21.753730</v>
+        <v>21.753730000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>922.092000</v>
+        <v>922.09199999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.792000</v>
+        <v>-164.792</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>78323.908837</v>
+        <v>78323.908836999995</v>
       </c>
       <c r="L3" s="1">
-        <v>21.756641</v>
+        <v>21.756640999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>945.010000</v>
+        <v>945.01</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.100000</v>
+        <v>-119.1</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>78334.423559</v>
+        <v>78334.423559000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.759562</v>
+        <v>21.759561999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>951.984000</v>
+        <v>951.98400000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.912000</v>
+        <v>-103.91200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>78345.673784</v>
+        <v>78345.673783999999</v>
       </c>
       <c r="V3" s="1">
         <v>21.762687</v>
       </c>
       <c r="W3" s="1">
-        <v>958.787000</v>
+        <v>958.78700000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.486700</v>
+        <v>-90.486699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>78356.070923</v>
+        <v>78356.070923000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.765575</v>
+        <v>21.765574999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.417000</v>
+        <v>966.41700000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.826000</v>
+        <v>-80.825999999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>78366.569741</v>
+        <v>78366.569740999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.768492</v>
+        <v>21.768491999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.509000</v>
+        <v>971.50900000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.228600</v>
+        <v>-80.2286</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>78376.694594</v>
+        <v>78376.694594000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.771304</v>
+        <v>21.771304000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.695000</v>
+        <v>979.69500000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.858900</v>
+        <v>-87.858900000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>78387.259360</v>
+        <v>78387.259359999996</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.774239</v>
+        <v>21.774239000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.923000</v>
+        <v>988.923</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.576000</v>
+        <v>-102.57599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>78398.571154</v>
+        <v>78398.571154000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.777381</v>
+        <v>21.777380999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1000.320000</v>
+        <v>1000.32</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>78409.772275</v>
+        <v>78409.772274999996</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.780492</v>
+        <v>21.780491999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.543000</v>
+        <v>-142.54300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>78420.732374</v>
+        <v>78420.732373999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.783537</v>
+        <v>21.783536999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1055.370000</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.867000</v>
+        <v>-226.86699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>78431.851191</v>
+        <v>78431.851190999994</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.786625</v>
+        <v>21.786625000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.040000</v>
+        <v>1135.04</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.809000</v>
+        <v>-361.80900000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>78443.301831</v>
+        <v>78443.301831000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.789806</v>
+        <v>21.789805999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.424000</v>
+        <v>-569.42399999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>78454.460825</v>
+        <v>78454.460825000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.792906</v>
+        <v>21.792905999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.980000</v>
+        <v>1413.98</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.337000</v>
+        <v>-790.33699999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>78465.192762</v>
+        <v>78465.192762000006</v>
       </c>
       <c r="BY3" s="1">
         <v>21.795887</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1574.510000</v>
+        <v>1574.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1020.880000</v>
+        <v>-1020.88</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>78476.195515</v>
+        <v>78476.195514999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.798943</v>
+        <v>21.798943000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1978.230000</v>
+        <v>1978.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1559.230000</v>
+        <v>-1559.23</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>78303.710753</v>
+        <v>78303.710753000007</v>
       </c>
       <c r="B4" s="1">
-        <v>21.751031</v>
+        <v>21.751031000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>904.999000</v>
+        <v>904.99900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.361000</v>
+        <v>-193.36099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>78313.773586</v>
+        <v>78313.773585999996</v>
       </c>
       <c r="G4" s="1">
         <v>21.753826</v>
       </c>
       <c r="H4" s="1">
-        <v>922.008000</v>
+        <v>922.00800000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.894000</v>
+        <v>-164.89400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>78324.598804</v>
+        <v>78324.598803999994</v>
       </c>
       <c r="L4" s="1">
         <v>21.756833</v>
       </c>
       <c r="M4" s="1">
-        <v>945.003000</v>
+        <v>945.00300000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.000000</v>
+        <v>-119</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>78335.116934</v>
+        <v>78335.116934000005</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.759755</v>
+        <v>21.759754999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>952.022000</v>
+        <v>952.02200000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.975000</v>
+        <v>-103.97499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>78346.018503</v>
+        <v>78346.018502999999</v>
       </c>
       <c r="V4" s="1">
-        <v>21.762783</v>
+        <v>21.762782999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>958.912000</v>
+        <v>958.91200000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.309600</v>
+        <v>-90.309600000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>78356.420107</v>
+        <v>78356.420106999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.765672</v>
+        <v>21.765671999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.445000</v>
+        <v>966.44500000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.899900</v>
+        <v>-80.899900000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>78366.912476</v>
+        <v>78366.912475999998</v>
       </c>
       <c r="AF4" s="1">
         <v>21.768587</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.644000</v>
+        <v>971.64400000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.302100</v>
+        <v>-80.302099999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>78377.356238</v>
+        <v>78377.356237999993</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.771488</v>
+        <v>21.771488000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.696000</v>
+        <v>979.69600000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.830100</v>
+        <v>-87.830100000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>78387.936897</v>
+        <v>78387.936897000007</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.774427</v>
+        <v>21.774426999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.914000</v>
+        <v>988.91399999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.557000</v>
+        <v>-102.557</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>78399.015075</v>
+        <v>78399.015075000003</v>
       </c>
       <c r="AU4" s="1">
         <v>21.777504</v>
       </c>
       <c r="AV4" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>78410.129891</v>
+        <v>78410.129891000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.780592</v>
+        <v>21.780591999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.960000</v>
+        <v>1009.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.548000</v>
+        <v>-142.548</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>78421.093460</v>
+        <v>78421.093460000004</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.783637</v>
+        <v>21.783636999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.869000</v>
+        <v>-226.869</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>78432.252951</v>
+        <v>78432.252951000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.786737</v>
+        <v>21.786736999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.791000</v>
+        <v>-361.791</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>78443.732358</v>
+        <v>78443.732357999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.789926</v>
+        <v>21.789926000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.472000</v>
+        <v>-569.47199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>78454.894327</v>
+        <v>78454.894327000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.793026</v>
+        <v>21.793026000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.990000</v>
+        <v>1413.99</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.335000</v>
+        <v>-790.33500000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>78465.612873</v>
+        <v>78465.612873000005</v>
       </c>
       <c r="BY4" s="1">
         <v>21.796004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.900000</v>
+        <v>-1020.9</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>78476.730204</v>
+        <v>78476.730204000007</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.799092</v>
+        <v>21.799092000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1977.610000</v>
+        <v>1977.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1557.860000</v>
+        <v>-1557.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>78304.243487</v>
       </c>
@@ -1252,103 +1668,103 @@
         <v>21.751179</v>
       </c>
       <c r="C5" s="1">
-        <v>904.917000</v>
+        <v>904.91700000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.312000</v>
+        <v>-193.31200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>78314.462033</v>
+        <v>78314.462033000003</v>
       </c>
       <c r="G5" s="1">
-        <v>21.754017</v>
+        <v>21.754017000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>922.390000</v>
+        <v>922.39</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.669000</v>
+        <v>-164.66900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>78324.945972</v>
+        <v>78324.945972000001</v>
       </c>
       <c r="L5" s="1">
         <v>21.756929</v>
       </c>
       <c r="M5" s="1">
-        <v>945.058000</v>
+        <v>945.05799999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.033000</v>
+        <v>-119.033</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>78335.470581</v>
+        <v>78335.470581000001</v>
       </c>
       <c r="Q5" s="1">
         <v>21.759853</v>
       </c>
       <c r="R5" s="1">
-        <v>952.002000</v>
+        <v>952.00199999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.959000</v>
+        <v>-103.959</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>78346.365208</v>
+        <v>78346.365208000003</v>
       </c>
       <c r="V5" s="1">
-        <v>21.762879</v>
+        <v>21.762879000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>958.912000</v>
+        <v>958.91200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.389300</v>
+        <v>-90.389300000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>78357.078331</v>
+        <v>78357.078330999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.765855</v>
+        <v>21.765854999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.407000</v>
+        <v>966.40700000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.833100</v>
+        <v>-80.833100000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>78367.571163</v>
+        <v>78367.571163000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.768770</v>
+        <v>21.76877</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.624000</v>
+        <v>971.62400000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.321600</v>
+        <v>-80.321600000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>78377.738157</v>
@@ -1357,1827 +1773,1827 @@
         <v>21.771594</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.703000</v>
+        <v>979.70299999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.832400</v>
+        <v>-87.832400000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>78388.375360</v>
+        <v>78388.375360000005</v>
       </c>
       <c r="AP5" s="1">
         <v>21.774549</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.948000</v>
+        <v>988.94799999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.581000</v>
+        <v>-102.581</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>78399.379105</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.777605</v>
+        <v>21.777605000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.929000</v>
+        <v>-123.929</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>78410.489995</v>
+        <v>78410.489994999996</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.780692</v>
+        <v>21.780691999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.551000</v>
+        <v>-142.55099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>78421.469923</v>
+        <v>78421.469922999997</v>
       </c>
       <c r="BE5" s="1">
         <v>21.783742</v>
       </c>
       <c r="BF5" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.883000</v>
+        <v>-226.88300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>78432.688934</v>
+        <v>78432.688934000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.786858</v>
+        <v>21.786857999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.080000</v>
+        <v>1135.08</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.831000</v>
+        <v>-361.83100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>78444.118741</v>
+        <v>78444.118740999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.790033</v>
+        <v>21.790033000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.476000</v>
+        <v>-569.476</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>78455.311959</v>
+        <v>78455.311958999999</v>
       </c>
       <c r="BT5" s="1">
         <v>21.793142</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.960000</v>
+        <v>1413.96</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.272000</v>
+        <v>-790.27200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>78466.036955</v>
+        <v>78466.036955000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.796121</v>
+        <v>21.796120999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1574.590000</v>
+        <v>1574.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1020.750000</v>
+        <v>-1020.75</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>78477.268897</v>
+        <v>78477.268897000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.799241</v>
+        <v>21.799240999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1977.830000</v>
+        <v>1977.83</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1560.000000</v>
+        <v>-1560</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>78304.415567</v>
+        <v>78304.415567000004</v>
       </c>
       <c r="B6" s="1">
         <v>21.751227</v>
       </c>
       <c r="C6" s="1">
-        <v>904.850000</v>
+        <v>904.85</v>
       </c>
       <c r="D6" s="1">
-        <v>-193.351000</v>
+        <v>-193.351</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>78314.803778</v>
+        <v>78314.803778000001</v>
       </c>
       <c r="G6" s="1">
-        <v>21.754112</v>
+        <v>21.754111999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>922.292000</v>
+        <v>922.29200000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.065000</v>
+        <v>-165.065</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>78325.289204</v>
+        <v>78325.289204000001</v>
       </c>
       <c r="L6" s="1">
-        <v>21.757025</v>
+        <v>21.757024999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>945.047000</v>
+        <v>945.04700000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.036000</v>
+        <v>-119.036</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>78335.816293</v>
+        <v>78335.816292999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.759949</v>
+        <v>21.759948999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>951.959000</v>
+        <v>951.95899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.009000</v>
+        <v>-104.009</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>78347.024918</v>
+        <v>78347.024917999996</v>
       </c>
       <c r="V6" s="1">
-        <v>21.763062</v>
+        <v>21.763062000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>958.858000</v>
+        <v>958.85799999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.324600</v>
+        <v>-90.324600000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>78357.461208</v>
+        <v>78357.461207999993</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.765961</v>
+        <v>21.765961000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.462000</v>
+        <v>966.46199999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.841400</v>
+        <v>-80.841399999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>78367.944192</v>
+        <v>78367.944191999995</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.768873</v>
+        <v>21.768872999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.615000</v>
+        <v>971.61500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.275300</v>
+        <v>-80.275300000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>78378.086349</v>
+        <v>78378.086349000005</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.771691</v>
+        <v>21.771691000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.698000</v>
+        <v>979.69799999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.829400</v>
+        <v>-87.829400000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>78388.733966</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.774648</v>
+        <v>21.774647999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.949000</v>
+        <v>988.94899999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.563000</v>
+        <v>-102.563</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>78399.743421</v>
+        <v>78399.743421000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.777707</v>
+        <v>21.777706999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1000.320000</v>
+        <v>1000.32</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.939000</v>
+        <v>-123.93899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>78410.927954</v>
+        <v>78410.927953999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.780813</v>
+        <v>21.780812999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.537000</v>
+        <v>-142.53700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>78422.185689</v>
+        <v>78422.185689000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.783940</v>
+        <v>21.783940000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.864000</v>
+        <v>-226.864</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>78433.003397</v>
+        <v>78433.003396999993</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.786945</v>
+        <v>21.786944999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.846000</v>
+        <v>-361.846</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>78444.517525</v>
+        <v>78444.517525000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.790144</v>
+        <v>21.790144000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.512000</v>
+        <v>-569.51199999999994</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>78455.741990</v>
+        <v>78455.741989999995</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.793262</v>
+        <v>21.793261999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.920000</v>
+        <v>1413.92</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.304000</v>
+        <v>-790.30399999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>78466.462520</v>
+        <v>78466.462520000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.796240</v>
+        <v>21.796240000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1574.370000</v>
+        <v>1574.37</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1020.900000</v>
+        <v>-1020.9</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>78477.806025</v>
+        <v>78477.806024999998</v>
       </c>
       <c r="CD6" s="1">
         <v>21.799391</v>
       </c>
       <c r="CE6" s="1">
-        <v>1978.400000</v>
+        <v>1978.4</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1558.070000</v>
+        <v>-1558.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>78304.756845</v>
+        <v>78304.756844999996</v>
       </c>
       <c r="B7" s="1">
-        <v>21.751321</v>
+        <v>21.751321000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>905.029000</v>
+        <v>905.029</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.162000</v>
+        <v>-193.16200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>78315.148000</v>
+        <v>78315.148000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>21.754208</v>
+        <v>21.754207999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>922.375000</v>
+        <v>922.375</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.983000</v>
+        <v>-164.983</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>78325.958836</v>
+        <v>78325.958836000005</v>
       </c>
       <c r="L7" s="1">
-        <v>21.757211</v>
+        <v>21.757211000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>945.098000</v>
+        <v>945.09799999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.040000</v>
+        <v>-119.04</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>78336.491844</v>
+        <v>78336.491844000004</v>
       </c>
       <c r="Q7" s="1">
         <v>21.760137</v>
       </c>
       <c r="R7" s="1">
-        <v>951.918000</v>
+        <v>951.91800000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.972000</v>
+        <v>-103.97199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>78347.398085</v>
+        <v>78347.398084999993</v>
       </c>
       <c r="V7" s="1">
-        <v>21.763166</v>
+        <v>21.763165999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>958.807000</v>
+        <v>958.80700000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.389300</v>
+        <v>-90.389300000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>78357.810888</v>
+        <v>78357.810888000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.766059</v>
+        <v>21.766058999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.451000</v>
+        <v>966.45100000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.864200</v>
+        <v>-80.864199999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>78368.285899</v>
+        <v>78368.285898999995</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.768968</v>
+        <v>21.768968000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.575000</v>
+        <v>971.57500000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.306800</v>
+        <v>-80.306799999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>78378.437516</v>
+        <v>78378.437516000005</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.771788</v>
+        <v>21.771788000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.704000</v>
+        <v>979.70399999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.807100</v>
+        <v>-87.807100000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>78389.159038</v>
+        <v>78389.159037999998</v>
       </c>
       <c r="AP7" s="1">
         <v>21.774766</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.942000</v>
+        <v>988.94200000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.572000</v>
+        <v>-102.572</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>78400.175216</v>
+        <v>78400.175216000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.777826</v>
+        <v>21.777826000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>78411.207710</v>
+        <v>78411.207710000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>21.780891</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.970000</v>
+        <v>1009.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.542000</v>
+        <v>-142.542</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>78422.566083</v>
+        <v>78422.566082999998</v>
       </c>
       <c r="BE7" s="1">
         <v>21.784046</v>
       </c>
       <c r="BF7" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.887000</v>
+        <v>-226.887</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>78433.378372</v>
+        <v>78433.378372000006</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.787050</v>
+        <v>21.787050000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.829000</v>
+        <v>-361.82900000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>78444.939621</v>
+        <v>78444.939620999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.790261</v>
+        <v>21.790261000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.472000</v>
+        <v>-569.47199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>78456.284614</v>
+        <v>78456.284614000004</v>
       </c>
       <c r="BT7" s="1">
         <v>21.793412</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.970000</v>
+        <v>1413.97</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.321000</v>
+        <v>-790.32100000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>78466.877673</v>
+        <v>78466.877672999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.796355</v>
+        <v>21.796354999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1020.950000</v>
+        <v>-1020.95</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>78478.350633</v>
+        <v>78478.350632999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.799542</v>
+        <v>21.799541999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1976.810000</v>
+        <v>1976.81</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1559.260000</v>
+        <v>-1559.26</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>78305.414045</v>
+        <v>78305.414044999998</v>
       </c>
       <c r="B8" s="1">
-        <v>21.751504</v>
+        <v>21.751504000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>905.103000</v>
+        <v>905.10299999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.273000</v>
+        <v>-193.273</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>78315.804238</v>
+        <v>78315.804237999997</v>
       </c>
       <c r="G8" s="1">
-        <v>21.754390</v>
+        <v>21.754390000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>922.343000</v>
+        <v>922.34299999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.620000</v>
+        <v>-164.62</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>78326.325841</v>
+        <v>78326.325840999998</v>
       </c>
       <c r="L8" s="1">
         <v>21.757313</v>
       </c>
       <c r="M8" s="1">
-        <v>945.035000</v>
+        <v>945.03499999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.084000</v>
+        <v>-119.084</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>78336.862852</v>
+        <v>78336.862852000006</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.760240</v>
+        <v>21.76024</v>
       </c>
       <c r="R8" s="1">
-        <v>951.948000</v>
+        <v>951.94799999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.957000</v>
+        <v>-103.95699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>78347.748053</v>
+        <v>78347.748053000003</v>
       </c>
       <c r="V8" s="1">
-        <v>21.763263</v>
+        <v>21.763262999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>958.760000</v>
+        <v>958.76</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.462800</v>
+        <v>-90.462800000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>78358.159576</v>
+        <v>78358.159576000005</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.766155</v>
+        <v>21.766155000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.414000</v>
+        <v>966.41399999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.830800</v>
+        <v>-80.830799999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>78368.626190</v>
+        <v>78368.626189999995</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.769063</v>
+        <v>21.769062999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.670000</v>
+        <v>971.67</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.284100</v>
+        <v>-80.284099999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>78378.863084</v>
+        <v>78378.863083999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.771906</v>
+        <v>21.771906000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.679000</v>
+        <v>979.67899999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.873400</v>
+        <v>-87.873400000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>78389.455646</v>
+        <v>78389.455646000002</v>
       </c>
       <c r="AP8" s="1">
         <v>21.774849</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.937000</v>
+        <v>988.93700000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.564000</v>
+        <v>-102.56399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>78400.474767</v>
+        <v>78400.474767000007</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.777910</v>
+        <v>21.777909999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>78411.565823</v>
+        <v>78411.565822999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>21.780991</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.559000</v>
+        <v>-142.559</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>78422.925222</v>
+        <v>78422.925222000005</v>
       </c>
       <c r="BE8" s="1">
         <v>21.784146</v>
       </c>
       <c r="BF8" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.866000</v>
+        <v>-226.86600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>78433.753844</v>
+        <v>78433.753844000006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.787154</v>
+        <v>21.787154000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.814000</v>
+        <v>-361.81400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>78445.756090</v>
+        <v>78445.756089999995</v>
       </c>
       <c r="BO8" s="1">
         <v>21.790488</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.471000</v>
+        <v>-569.471</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>78456.581717</v>
+        <v>78456.581716999994</v>
       </c>
       <c r="BT8" s="1">
         <v>21.793495</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.860000</v>
+        <v>1413.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.234000</v>
+        <v>-790.23400000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>78467.329527</v>
+        <v>78467.329526999994</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.796480</v>
+        <v>21.796479999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.440000</v>
+        <v>1574.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1020.920000</v>
+        <v>-1020.92</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>78478.891272</v>
+        <v>78478.891271999993</v>
       </c>
       <c r="CD8" s="1">
         <v>21.799692</v>
       </c>
       <c r="CE8" s="1">
-        <v>1978.480000</v>
+        <v>1978.48</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1559.230000</v>
+        <v>-1559.23</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>78305.782044</v>
+        <v>78305.782044000007</v>
       </c>
       <c r="B9" s="1">
-        <v>21.751606</v>
+        <v>21.751605999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>905.105000</v>
+        <v>905.10500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.271000</v>
+        <v>-193.27099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>78316.180671</v>
+        <v>78316.180670999995</v>
       </c>
       <c r="G9" s="1">
-        <v>21.754495</v>
+        <v>21.754494999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>922.054000</v>
+        <v>922.05399999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.158000</v>
+        <v>-165.15799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>78326.672547</v>
+        <v>78326.672546999995</v>
       </c>
       <c r="L9" s="1">
-        <v>21.757409</v>
+        <v>21.757408999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>945.019000</v>
+        <v>945.01900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.072000</v>
+        <v>-119.072</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>78337.210547</v>
+        <v>78337.210546999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.760336</v>
+        <v>21.760335999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>952.014000</v>
+        <v>952.01400000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.969000</v>
+        <v>-103.96899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>78348.091818</v>
+        <v>78348.091818000001</v>
       </c>
       <c r="V9" s="1">
-        <v>21.763359</v>
+        <v>21.763359000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>958.787000</v>
+        <v>958.78700000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.431200</v>
+        <v>-90.431200000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>78358.585145</v>
+        <v>78358.585145000005</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.766274</v>
+        <v>21.766273999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.439000</v>
+        <v>966.43899999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.775700</v>
+        <v>-80.775700000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>78369.056681</v>
+        <v>78369.056681000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.769182</v>
+        <v>21.769182000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.561000</v>
+        <v>971.56100000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.340900</v>
+        <v>-80.340900000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>78379.137895</v>
+        <v>78379.137895000007</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.771983</v>
+        <v>21.771982999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.717000</v>
+        <v>979.71699999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.835100</v>
+        <v>-87.835099999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>78389.814751</v>
+        <v>78389.814750999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.774949</v>
+        <v>21.774948999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.932000</v>
+        <v>988.93200000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.570000</v>
+        <v>-102.57</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>78400.836351</v>
+        <v>78400.836351000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.778010</v>
+        <v>21.778009999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.900000</v>
+        <v>-123.9</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>78411.922432</v>
+        <v>78411.922432000007</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.781090</v>
+        <v>21.781089999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.537000</v>
+        <v>-142.53700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>78423.646897</v>
+        <v>78423.646896999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.784346</v>
+        <v>21.784345999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1055.340000</v>
+        <v>1055.3399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.883000</v>
+        <v>-226.88300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>78434.524626</v>
+        <v>78434.524625999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>21.787368</v>
+        <v>21.787368000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.070000</v>
+        <v>1135.07</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.824000</v>
+        <v>-361.82400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>78446.172675</v>
+        <v>78446.172674999994</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.790604</v>
+        <v>21.790603999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.498000</v>
+        <v>-569.49800000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>78457.008815</v>
+        <v>78457.008814999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.793614</v>
+        <v>21.793614000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.770000</v>
+        <v>1413.77</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.272000</v>
+        <v>-790.27200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>78467.747656</v>
+        <v>78467.747656000007</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.796597</v>
+        <v>21.796596999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1574.470000</v>
+        <v>1574.47</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1020.980000</v>
+        <v>-1020.98</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>78479.742934</v>
+        <v>78479.742933999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.799929</v>
+        <v>21.799928999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1977.280000</v>
+        <v>1977.28</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1559.460000</v>
+        <v>-1559.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>78306.123797</v>
+        <v>78306.123796999993</v>
       </c>
       <c r="B10" s="1">
-        <v>21.751701</v>
+        <v>21.751701000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>905.021000</v>
+        <v>905.02099999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.302000</v>
+        <v>-193.30199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>78316.527903</v>
+        <v>78316.527902999995</v>
       </c>
       <c r="G10" s="1">
-        <v>21.754591</v>
+        <v>21.754591000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>921.839000</v>
+        <v>921.83900000000006</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.752000</v>
+        <v>-164.75200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>78327.017762</v>
+        <v>78327.017762000003</v>
       </c>
       <c r="L10" s="1">
-        <v>21.757505</v>
+        <v>21.757504999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>945.076000</v>
+        <v>945.07600000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.047000</v>
+        <v>-119.047</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>78337.583075</v>
+        <v>78337.583075000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.760440</v>
+        <v>21.760439999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>951.976000</v>
+        <v>951.976</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.004000</v>
+        <v>-104.004</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>78348.520324</v>
+        <v>78348.520323999997</v>
       </c>
       <c r="V10" s="1">
-        <v>21.763478</v>
+        <v>21.763477999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>958.746000</v>
+        <v>958.74599999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.412600</v>
+        <v>-90.412599999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>78358.858440</v>
+        <v>78358.858439999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.766350</v>
+        <v>21.766349999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.392000</v>
+        <v>966.39200000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.836400</v>
+        <v>-80.836399999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>78369.327993</v>
+        <v>78369.327992999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.769258</v>
+        <v>21.769258000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.617000</v>
+        <v>971.61699999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.324700</v>
+        <v>-80.324700000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>78379.488044</v>
+        <v>78379.488043999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.772080</v>
+        <v>21.772079999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.726000</v>
+        <v>979.726</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.835200</v>
+        <v>-87.8352</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>78390.177325</v>
+        <v>78390.177324999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.775049</v>
+        <v>21.775048999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.930000</v>
+        <v>988.93</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.581000</v>
+        <v>-102.581</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>78401.200911</v>
+        <v>78401.200911000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.778111</v>
+        <v>21.778110999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>78412.642302</v>
+        <v>78412.642301999993</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.781290</v>
+        <v>21.781289999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.546000</v>
+        <v>-142.54599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>78424.034736</v>
+        <v>78424.034736000001</v>
       </c>
       <c r="BE10" s="1">
         <v>21.784454</v>
       </c>
       <c r="BF10" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.868000</v>
+        <v>-226.86799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>78434.906059</v>
+        <v>78434.906059000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.787474</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.838000</v>
+        <v>-361.83800000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>78446.570499</v>
+        <v>78446.570498999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.790714</v>
+        <v>21.790714000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.499000</v>
+        <v>-569.49900000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>78457.736403</v>
+        <v>78457.736403000003</v>
       </c>
       <c r="BT10" s="1">
         <v>21.793816</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.800000</v>
+        <v>1413.8</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.234000</v>
+        <v>-790.23400000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>78468.483222</v>
+        <v>78468.483221999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.796801</v>
+        <v>21.796800999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1020.850000</v>
+        <v>-1020.85</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>78479.970566</v>
+        <v>78479.970566000004</v>
       </c>
       <c r="CD10" s="1">
         <v>21.799992</v>
       </c>
       <c r="CE10" s="1">
-        <v>1976.930000</v>
+        <v>1976.93</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1559.530000</v>
+        <v>-1559.53</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>78306.468509</v>
+        <v>78306.468508999998</v>
       </c>
       <c r="B11" s="1">
         <v>21.751797</v>
       </c>
       <c r="C11" s="1">
-        <v>904.885000</v>
+        <v>904.88499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-193.294000</v>
+        <v>-193.29400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>78316.872094</v>
+        <v>78316.872094000006</v>
       </c>
       <c r="G11" s="1">
-        <v>21.754687</v>
+        <v>21.754687000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>922.180000</v>
+        <v>922.18</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.867000</v>
+        <v>-164.86699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>78327.450800</v>
+        <v>78327.450800000006</v>
       </c>
       <c r="L11" s="1">
-        <v>21.757625</v>
+        <v>21.757625000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>945.031000</v>
+        <v>945.03099999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.097000</v>
+        <v>-119.09699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>78338.274466</v>
+        <v>78338.274466000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.760632</v>
+        <v>21.760632000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>951.959000</v>
+        <v>951.95899999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.000000</v>
+        <v>-104</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>78348.787171</v>
+        <v>78348.787171000004</v>
       </c>
       <c r="V11" s="1">
-        <v>21.763552</v>
+        <v>21.763552000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>958.656000</v>
+        <v>958.65599999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.398300</v>
+        <v>-90.398300000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>78359.207158</v>
+        <v>78359.207158000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.766446</v>
+        <v>21.766445999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.425000</v>
+        <v>966.42499999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.896000</v>
+        <v>-80.896000000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>78369.673248</v>
+        <v>78369.673248000006</v>
       </c>
       <c r="AF11" s="1">
         <v>21.769354</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.562000</v>
+        <v>971.56200000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.288300</v>
+        <v>-80.288300000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>78379.836267</v>
+        <v>78379.836267000006</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.772177</v>
+        <v>21.772176999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.693000</v>
+        <v>979.69299999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.836200</v>
+        <v>-87.836200000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>78390.896028</v>
+        <v>78390.896028000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.775249</v>
+        <v>21.775248999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.939000</v>
+        <v>988.93899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>78401.928574</v>
+        <v>78401.928574000005</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.778313</v>
+        <v>21.778313000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.938000</v>
+        <v>-123.938</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>78413.030991</v>
+        <v>78413.030991000007</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.781397</v>
+        <v>21.781396999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.970000</v>
+        <v>1009.97</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.543000</v>
+        <v>-142.54300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>78424.417648</v>
+        <v>78424.417648000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.784560</v>
+        <v>21.784559999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.877000</v>
+        <v>-226.87700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>78435.277591</v>
+        <v>78435.277591000005</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.787577</v>
+        <v>21.787576999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.040000</v>
+        <v>1135.04</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.835000</v>
+        <v>-361.83499999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>78447.310034</v>
+        <v>78447.310033999995</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.790919</v>
+        <v>21.790918999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.513000</v>
+        <v>-569.51300000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>78457.853462</v>
+        <v>78457.853461999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.793848</v>
+        <v>21.793848000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.750000</v>
+        <v>1413.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.264000</v>
+        <v>-790.26400000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>78468.652853</v>
+        <v>78468.652853000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.796848</v>
+        <v>21.796848000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1574.630000</v>
+        <v>1574.63</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1020.800000</v>
+        <v>-1020.8</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>78480.489381</v>
+        <v>78480.489381000007</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.800136</v>
+        <v>21.800135999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1978.790000</v>
+        <v>1978.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1559.510000</v>
+        <v>-1559.51</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>78306.891633</v>
+        <v>78306.891633000007</v>
       </c>
       <c r="B12" s="1">
-        <v>21.751914</v>
+        <v>21.751913999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>904.748000</v>
+        <v>904.74800000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.424000</v>
+        <v>-193.42400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>78317.295712</v>
+        <v>78317.295712000006</v>
       </c>
       <c r="G12" s="1">
         <v>21.754804</v>
       </c>
       <c r="H12" s="1">
-        <v>922.168000</v>
+        <v>922.16800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.070000</v>
+        <v>-165.07</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>78327.733189</v>
+        <v>78327.733189000006</v>
       </c>
       <c r="L12" s="1">
         <v>21.757704</v>
       </c>
       <c r="M12" s="1">
-        <v>945.050000</v>
+        <v>945.05</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.936000</v>
+        <v>-118.93600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>78338.625137</v>
+        <v>78338.625136999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.760729</v>
+        <v>21.760729000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>951.957000</v>
+        <v>951.95699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.967000</v>
+        <v>-103.967</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>78349.131924</v>
+        <v>78349.131924000001</v>
       </c>
       <c r="V12" s="1">
         <v>21.763648</v>
       </c>
       <c r="W12" s="1">
-        <v>958.706000</v>
+        <v>958.70600000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.364000</v>
+        <v>-90.364000000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>78359.554821</v>
+        <v>78359.554820999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.766543</v>
+        <v>21.766542999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.432000</v>
+        <v>966.43200000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.863700</v>
+        <v>-80.863699999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>78370.015944</v>
+        <v>78370.015943999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.769449</v>
+        <v>21.769449000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.632000</v>
+        <v>971.63199999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.295400</v>
+        <v>-80.295400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>78380.531627</v>
+        <v>78380.531627000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.772370</v>
+        <v>21.772369999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.731000</v>
+        <v>979.73099999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.829300</v>
+        <v>-87.829300000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>78391.255628</v>
+        <v>78391.255627999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.775349</v>
+        <v>21.775348999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.926000</v>
+        <v>988.92600000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.556000</v>
+        <v>-102.556</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>78402.309469</v>
@@ -3186,330 +3602,330 @@
         <v>21.778419</v>
       </c>
       <c r="AV12" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.906000</v>
+        <v>-123.90600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>78413.389102</v>
+        <v>78413.389102000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.781497</v>
+        <v>21.781497000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.555000</v>
+        <v>-142.55500000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>78425.091215</v>
+        <v>78425.091214999993</v>
       </c>
       <c r="BE12" s="1">
         <v>21.784748</v>
       </c>
       <c r="BF12" s="1">
-        <v>1055.380000</v>
+        <v>1055.3800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.880000</v>
+        <v>-226.88</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>78435.998736</v>
+        <v>78435.998735999994</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.787777</v>
+        <v>21.787776999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.825000</v>
+        <v>-361.82499999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>78447.807490</v>
+        <v>78447.807490000007</v>
       </c>
       <c r="BO12" s="1">
         <v>21.791058</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.522000</v>
+        <v>-569.52200000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>78458.293444</v>
+        <v>78458.293443999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.793970</v>
+        <v>21.793970000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.680000</v>
+        <v>1413.68</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.269000</v>
+        <v>-790.26900000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>78469.077939</v>
+        <v>78469.077938999995</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.796966</v>
+        <v>21.796966000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1020.830000</v>
+        <v>-1020.83</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>78481.008196</v>
+        <v>78481.008195999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.800280</v>
+        <v>21.800280000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1978.240000</v>
+        <v>1978.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1560.040000</v>
+        <v>-1560.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>78307.163899</v>
+        <v>78307.163899000006</v>
       </c>
       <c r="B13" s="1">
-        <v>21.751990</v>
+        <v>21.751989999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>904.988000</v>
+        <v>904.98800000000006</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.247000</v>
+        <v>-193.24700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>78317.585341</v>
+        <v>78317.585340999998</v>
       </c>
       <c r="G13" s="1">
-        <v>21.754885</v>
+        <v>21.754885000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>922.289000</v>
+        <v>922.28899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.631000</v>
+        <v>-164.631</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>78328.078703</v>
+        <v>78328.078703000006</v>
       </c>
       <c r="L13" s="1">
-        <v>21.757800</v>
+        <v>21.7578</v>
       </c>
       <c r="M13" s="1">
-        <v>944.884000</v>
+        <v>944.88400000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.022000</v>
+        <v>-119.02200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>78338.972833</v>
+        <v>78338.972833000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.760826</v>
+        <v>21.760826000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>951.947000</v>
+        <v>951.947</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.962000</v>
+        <v>-103.962</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>78349.475618</v>
+        <v>78349.475617999997</v>
       </c>
       <c r="V13" s="1">
-        <v>21.763743</v>
+        <v>21.763743000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>958.907000</v>
+        <v>958.90700000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.348000</v>
+        <v>-90.347999999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>78360.253685</v>
+        <v>78360.253685000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.766737</v>
+        <v>21.766736999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.362000</v>
+        <v>966.36199999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.856900</v>
+        <v>-80.856899999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>78370.702903</v>
+        <v>78370.702902999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.769640</v>
+        <v>21.769639999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.593000</v>
+        <v>971.59299999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.188100</v>
+        <v>-80.188100000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>78380.879322</v>
+        <v>78380.879321999993</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.772466</v>
+        <v>21.772466000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.676000</v>
+        <v>979.67600000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.846600</v>
+        <v>-87.846599999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>78391.616716</v>
+        <v>78391.616716000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.775449</v>
+        <v>21.775448999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.932000</v>
+        <v>988.93200000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.565000</v>
+        <v>-102.565</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>78402.685951</v>
+        <v>78402.685951000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.778524</v>
+        <v>21.778524000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.906000</v>
+        <v>-123.90600000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>78414.056253</v>
+        <v>78414.056253000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>21.781682</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.950000</v>
+        <v>1009.95</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.541000</v>
+        <v>-142.541</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>78425.498961</v>
+        <v>78425.498961000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.784861</v>
+        <v>21.784860999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.868000</v>
+        <v>-226.86799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>78436.428768</v>
+        <v>78436.428767999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.787897</v>
+        <v>21.787897000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.070000</v>
+        <v>1135.07</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.815000</v>
+        <v>-361.815</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>78448.227104</v>
+        <v>78448.227104000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.791174</v>
+        <v>21.791174000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.508000</v>
+        <v>-569.50800000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>78458.721479</v>
@@ -3518,3386 +3934,3387 @@
         <v>21.794089</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.610000</v>
+        <v>1413.61</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.378000</v>
+        <v>-790.37800000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>78469.523828</v>
+        <v>78469.523828000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.797090</v>
+        <v>21.797090000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1574.330000</v>
+        <v>1574.33</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1020.940000</v>
+        <v>-1020.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>78481.559252</v>
+        <v>78481.559252000006</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.800433</v>
+        <v>21.800433000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1977.140000</v>
+        <v>1977.14</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1559.620000</v>
+        <v>-1559.62</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>78307.504650</v>
+        <v>78307.504650000003</v>
       </c>
       <c r="B14" s="1">
-        <v>21.752085</v>
+        <v>21.752085000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.842000</v>
+        <v>904.84199999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.261000</v>
+        <v>-193.261</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>78317.930556</v>
+        <v>78317.930556000007</v>
       </c>
       <c r="G14" s="1">
-        <v>21.754981</v>
+        <v>21.754981000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>922.369000</v>
+        <v>922.36900000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.623000</v>
+        <v>-164.62299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>78328.422926</v>
+        <v>78328.422925999999</v>
       </c>
       <c r="L14" s="1">
-        <v>21.757895</v>
+        <v>21.757895000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>945.074000</v>
+        <v>945.07399999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.124000</v>
+        <v>-119.124</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>78339.664752</v>
+        <v>78339.664751999997</v>
       </c>
       <c r="Q14" s="1">
         <v>21.761018</v>
       </c>
       <c r="R14" s="1">
-        <v>951.993000</v>
+        <v>951.99300000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.993000</v>
+        <v>-103.99299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>78350.163569</v>
+        <v>78350.163568999997</v>
       </c>
       <c r="V14" s="1">
-        <v>21.763934</v>
+        <v>21.763933999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>958.799000</v>
+        <v>958.79899999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.368700</v>
+        <v>-90.368700000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>78360.601417</v>
+        <v>78360.601416999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.766834</v>
+        <v>21.766833999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.474000</v>
+        <v>966.47400000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.836400</v>
+        <v>-80.836399999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>78371.043692</v>
+        <v>78371.043692000007</v>
       </c>
       <c r="AF14" s="1">
         <v>21.769734</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.582000</v>
+        <v>971.58199999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.299500</v>
+        <v>-80.299499999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>78381.228010</v>
+        <v>78381.228010000006</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.772563</v>
+        <v>21.772563000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.677000</v>
+        <v>979.67700000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.843400</v>
+        <v>-87.843400000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>78392.299210</v>
+        <v>78392.299209999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.775639</v>
+        <v>21.775639000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.930000</v>
+        <v>988.93</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.576000</v>
+        <v>-102.57599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>78403.365452</v>
+        <v>78403.365451999998</v>
       </c>
       <c r="AU14" s="1">
         <v>21.778713</v>
       </c>
       <c r="AV14" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.900000</v>
+        <v>-123.9</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>78414.496670</v>
+        <v>78414.496669999993</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.781805</v>
+        <v>21.781804999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.960000</v>
+        <v>1009.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.536000</v>
+        <v>-142.536</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>78425.890271</v>
+        <v>78425.890270999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.784970</v>
+        <v>21.784970000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.879000</v>
+        <v>-226.87899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>78436.832511</v>
+        <v>78436.832511000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.788009</v>
+        <v>21.788008999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.866000</v>
+        <v>-361.86599999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>78448.622430</v>
+        <v>78448.622430000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.791284</v>
+        <v>21.791284000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.499000</v>
+        <v>-569.49900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>78459.153981</v>
+        <v>78459.153980999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.794209</v>
+        <v>21.794208999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.323000</v>
+        <v>-790.32299999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>78469.954852</v>
+        <v>78469.954851999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.797210</v>
+        <v>21.79721</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1574.460000</v>
+        <v>1574.46</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1021.030000</v>
+        <v>-1021.03</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>78482.087987</v>
+        <v>78482.087987000006</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.800580</v>
+        <v>21.80058</v>
       </c>
       <c r="CE14" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1559.540000</v>
+        <v>-1559.54</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>78307.845935</v>
+        <v>78307.845935000005</v>
       </c>
       <c r="B15" s="1">
-        <v>21.752179</v>
+        <v>21.752179000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>904.996000</v>
+        <v>904.99599999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.221000</v>
+        <v>-193.221</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>78318.273788</v>
+        <v>78318.273788000006</v>
       </c>
       <c r="G15" s="1">
-        <v>21.755076</v>
+        <v>21.755075999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>922.150000</v>
+        <v>922.15</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.865000</v>
+        <v>-164.86500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>78329.116336</v>
+        <v>78329.116336000006</v>
       </c>
       <c r="L15" s="1">
-        <v>21.758088</v>
+        <v>21.758088000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>945.079000</v>
+        <v>945.07899999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.960000</v>
+        <v>-118.96</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>78340.018399</v>
+        <v>78340.018398999993</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.761116</v>
+        <v>21.761116000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.985000</v>
+        <v>951.98500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.965000</v>
+        <v>-103.965</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>78350.503329</v>
+        <v>78350.503328999999</v>
       </c>
       <c r="V15" s="1">
-        <v>21.764029</v>
+        <v>21.764029000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>958.794000</v>
+        <v>958.79399999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.417400</v>
+        <v>-90.417400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>78360.950101</v>
+        <v>78360.950100999995</v>
       </c>
       <c r="AA15" s="1">
         <v>21.766931</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.436000</v>
+        <v>966.43600000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.845500</v>
+        <v>-80.845500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>78371.491579</v>
+        <v>78371.491578999994</v>
       </c>
       <c r="AF15" s="1">
         <v>21.769859</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.564000</v>
+        <v>971.56399999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.179400</v>
+        <v>-80.179400000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78381.883256</v>
+        <v>78381.883256000001</v>
       </c>
       <c r="AK15" s="1">
         <v>21.772745</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.699000</v>
+        <v>979.69899999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.847300</v>
+        <v>-87.847300000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>78392.695018</v>
+        <v>78392.695017999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.775749</v>
+        <v>21.775749000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.939000</v>
+        <v>988.93899999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>78403.815819</v>
+        <v>78403.815818999996</v>
       </c>
       <c r="AU15" s="1">
         <v>21.778838</v>
       </c>
       <c r="AV15" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.915000</v>
+        <v>-123.91500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>78414.858749</v>
+        <v>78414.858749000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.781905</v>
+        <v>21.781904999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.541000</v>
+        <v>-142.541</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>78426.250861</v>
+        <v>78426.250860999993</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.785070</v>
+        <v>21.785070000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.884000</v>
+        <v>-226.88399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>78437.210463</v>
+        <v>78437.210462999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>21.788114</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.030000</v>
+        <v>1135.03</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.818000</v>
+        <v>-361.81799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>78449.047525</v>
+        <v>78449.047525000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.791402</v>
+        <v>21.791402000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.650000</v>
+        <v>1266.6500000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.515000</v>
+        <v>-569.51499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>78459.563201</v>
+        <v>78459.563200999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.794323</v>
+        <v>21.794322999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.393000</v>
+        <v>-790.39300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>78470.375961</v>
+        <v>78470.375960999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.797327</v>
+        <v>21.797326999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1574.560000</v>
+        <v>1574.56</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1021.010000</v>
+        <v>-1021.01</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>78482.607831</v>
+        <v>78482.607831000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.800724</v>
+        <v>21.800723999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1977.500000</v>
+        <v>1977.5</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1558.170000</v>
+        <v>-1558.17</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>78308.531370</v>
+        <v>78308.531369999997</v>
       </c>
       <c r="B16" s="1">
-        <v>21.752370</v>
+        <v>21.752369999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>904.991000</v>
+        <v>904.99099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.162000</v>
+        <v>-193.16200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>78318.961243</v>
+        <v>78318.961242999998</v>
       </c>
       <c r="G16" s="1">
         <v>21.755267</v>
       </c>
       <c r="H16" s="1">
-        <v>922.448000</v>
+        <v>922.44799999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.775000</v>
+        <v>-164.77500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>78329.465521</v>
+        <v>78329.465521000006</v>
       </c>
       <c r="L16" s="1">
-        <v>21.758185</v>
+        <v>21.758185000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>945.064000</v>
+        <v>945.06399999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.001000</v>
+        <v>-119.001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>78340.365601</v>
+        <v>78340.365600999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.761213</v>
+        <v>21.761213000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>951.976000</v>
+        <v>951.976</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.012000</v>
+        <v>-104.012</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>78350.847836</v>
+        <v>78350.847836000001</v>
       </c>
       <c r="V16" s="1">
-        <v>21.764124</v>
+        <v>21.764123999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>958.806000</v>
+        <v>958.80600000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.312200</v>
+        <v>-90.312200000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>78361.611267</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.767114</v>
+        <v>21.767113999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.393000</v>
+        <v>966.39300000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.816900</v>
+        <v>-80.816900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>78371.940949</v>
+        <v>78371.940948999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.769984</v>
+        <v>21.769984000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.706000</v>
+        <v>971.70600000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.079800</v>
+        <v>-80.079800000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78382.272583</v>
+        <v>78382.272582999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.772853</v>
+        <v>21.772853000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.698000</v>
+        <v>979.69799999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.820800</v>
+        <v>-87.820800000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>78393.080905</v>
+        <v>78393.080904999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.775856</v>
+        <v>21.775856000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.960000</v>
+        <v>988.96</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.565000</v>
+        <v>-102.565</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>78404.184348</v>
+        <v>78404.184347999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.778940</v>
+        <v>21.778939999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.934000</v>
+        <v>-123.934</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>78415.213923</v>
+        <v>78415.213923000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.782004</v>
+        <v>21.782004000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.970000</v>
+        <v>1009.97</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.522000</v>
+        <v>-142.52199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>78426.675971</v>
+        <v>78426.675971000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.785188</v>
+        <v>21.785188000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.849000</v>
+        <v>-226.84899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>78437.650414</v>
+        <v>78437.650414000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.788236</v>
+        <v>21.788236000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.040000</v>
+        <v>1135.04</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.797000</v>
+        <v>-361.79700000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>78449.443327</v>
+        <v>78449.443327000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.791512</v>
+        <v>21.791512000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.530000</v>
+        <v>-569.53</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>78459.989729</v>
+        <v>78459.989728999994</v>
       </c>
       <c r="BT16" s="1">
         <v>21.794442</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.386000</v>
+        <v>-790.38599999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>78470.799538</v>
+        <v>78470.799538000007</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.797444</v>
+        <v>21.797443999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1574.540000</v>
+        <v>1574.54</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1020.980000</v>
+        <v>-1020.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>78483.147939</v>
+        <v>78483.147939000002</v>
       </c>
       <c r="CD16" s="1">
         <v>21.800874</v>
       </c>
       <c r="CE16" s="1">
-        <v>1977.650000</v>
+        <v>1977.65</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1559.760000</v>
+        <v>-1559.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>78308.873609</v>
+        <v>78308.873609000002</v>
       </c>
       <c r="B17" s="1">
-        <v>21.752465</v>
+        <v>21.752465000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.847000</v>
+        <v>904.84699999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.151000</v>
+        <v>-193.15100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>78319.310960</v>
+        <v>78319.310960000003</v>
       </c>
       <c r="G17" s="1">
         <v>21.755364</v>
       </c>
       <c r="H17" s="1">
-        <v>922.158000</v>
+        <v>922.15800000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.188000</v>
+        <v>-164.18799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>78329.808781</v>
       </c>
       <c r="L17" s="1">
-        <v>21.758280</v>
+        <v>21.758279999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>945.083000</v>
+        <v>945.08299999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.985000</v>
+        <v>-118.985</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>78341.030239</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.761397</v>
+        <v>21.761396999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>951.950000</v>
+        <v>951.95</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.916000</v>
+        <v>-103.916</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>78351.508224</v>
+        <v>78351.508224000005</v>
       </c>
       <c r="V17" s="1">
         <v>21.764308</v>
       </c>
       <c r="W17" s="1">
-        <v>958.769000</v>
+        <v>958.76900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.379700</v>
+        <v>-90.3797</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>78361.996986</v>
+        <v>78361.996985999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.767221</v>
+        <v>21.767220999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.499000</v>
+        <v>966.49900000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.816200</v>
+        <v>-80.816199999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>78372.085749</v>
+        <v>78372.085749000005</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.770024</v>
+        <v>21.770023999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.648000</v>
+        <v>971.64800000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.220100</v>
+        <v>-80.220100000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78382.621767</v>
+        <v>78382.621767000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.772950</v>
+        <v>21.772950000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.691000</v>
+        <v>979.69100000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.825800</v>
+        <v>-87.825800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>78393.439545</v>
+        <v>78393.439545000001</v>
       </c>
       <c r="AP17" s="1">
         <v>21.775955</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.916000</v>
+        <v>988.91600000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.551000</v>
+        <v>-102.551</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>78404.540971</v>
+        <v>78404.540970999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.779039</v>
+        <v>21.779039000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>78415.645900</v>
+        <v>78415.645900000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>21.782124</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.556000</v>
+        <v>-142.55600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>78426.972077</v>
+        <v>78426.972076999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.785270</v>
+        <v>21.785270000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.874000</v>
+        <v>-226.874</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>78437.986207</v>
+        <v>78437.986206999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.788330</v>
+        <v>21.788329999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.080000</v>
+        <v>1135.08</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.850000</v>
+        <v>-361.85</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>78449.860926</v>
+        <v>78449.860925999994</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.791628</v>
+        <v>21.791627999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.552000</v>
+        <v>-569.55200000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>78460.403889</v>
+        <v>78460.403888999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.794557</v>
+        <v>21.794557000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.510000</v>
+        <v>1413.51</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.446000</v>
+        <v>-790.44600000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>78471.254867</v>
+        <v>78471.254866999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.797571</v>
+        <v>21.797571000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1574.520000</v>
+        <v>1574.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1020.810000</v>
+        <v>-1020.81</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>78483.691586</v>
+        <v>78483.691586000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.801025</v>
+        <v>21.801024999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1558.370000</v>
+        <v>-1558.37</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>78309.215352</v>
+        <v>78309.215351999999</v>
       </c>
       <c r="B18" s="1">
-        <v>21.752560</v>
+        <v>21.752559999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>904.898000</v>
+        <v>904.89800000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.204000</v>
+        <v>-193.20400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>78319.664570</v>
+        <v>78319.664569999994</v>
       </c>
       <c r="G18" s="1">
-        <v>21.755462</v>
+        <v>21.755462000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>922.046000</v>
+        <v>922.04600000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.476000</v>
+        <v>-164.476</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>78330.470413</v>
+        <v>78330.470413000003</v>
       </c>
       <c r="L18" s="1">
         <v>21.758464</v>
       </c>
       <c r="M18" s="1">
-        <v>945.102000</v>
+        <v>945.10199999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.840000</v>
+        <v>-118.84</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>78341.410702</v>
+        <v>78341.410701999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.761503</v>
+        <v>21.761503000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>951.966000</v>
+        <v>951.96600000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.945000</v>
+        <v>-103.94499999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>78351.879269</v>
+        <v>78351.879268999997</v>
       </c>
       <c r="V18" s="1">
-        <v>21.764411</v>
+        <v>21.764410999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>958.763000</v>
+        <v>958.76300000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.373300</v>
+        <v>-90.3733</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>78362.345810</v>
+        <v>78362.345809999999</v>
       </c>
       <c r="AA18" s="1">
         <v>21.767318</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.414000</v>
+        <v>966.41399999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.862600</v>
+        <v>-80.8626</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>78372.425509</v>
+        <v>78372.425508999993</v>
       </c>
       <c r="AF18" s="1">
         <v>21.770118</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.710000</v>
+        <v>971.71</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.405400</v>
+        <v>-80.4054</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>78382.971942</v>
+        <v>78382.971942000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.773048</v>
+        <v>21.773047999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.712000</v>
+        <v>979.71199999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.819000</v>
+        <v>-87.819000000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>78393.880952</v>
+        <v>78393.880952000007</v>
       </c>
       <c r="AP18" s="1">
-        <v>21.776078</v>
+        <v>21.776077999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.931000</v>
+        <v>988.93100000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.565000</v>
+        <v>-102.565</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>78405.015643</v>
+        <v>78405.015643000006</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.779171</v>
+        <v>21.779171000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.913000</v>
+        <v>-123.913</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>78415.931132</v>
+        <v>78415.931131999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.782203</v>
+        <v>21.782202999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.543000</v>
+        <v>-142.54300000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>78427.333133</v>
+        <v>78427.333132999993</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.785370</v>
+        <v>21.78537</v>
       </c>
       <c r="BF18" s="1">
-        <v>1055.370000</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.858000</v>
+        <v>-226.858</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>78438.360685</v>
+        <v>78438.360685000007</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.788434</v>
+        <v>21.788433999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.849000</v>
+        <v>-361.84899999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>78450.259213</v>
+        <v>78450.259212999998</v>
       </c>
       <c r="BO18" s="1">
         <v>21.791739</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.525000</v>
+        <v>-569.52499999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>78460.831968</v>
+        <v>78460.831967999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.794676</v>
+        <v>21.794675999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.370000</v>
+        <v>1413.37</v>
       </c>
       <c r="BV18" s="1">
-        <v>-790.494000</v>
+        <v>-790.49400000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>78471.680434</v>
+        <v>78471.680433999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.797689</v>
+        <v>21.797688999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.360000</v>
+        <v>1574.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1020.890000</v>
+        <v>-1020.89</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>78484.226768</v>
+        <v>78484.226767999993</v>
       </c>
       <c r="CD18" s="1">
         <v>21.801174</v>
       </c>
       <c r="CE18" s="1">
-        <v>1976.540000</v>
+        <v>1976.54</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1559.000000</v>
+        <v>-1559</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>78309.867095</v>
+        <v>78309.867094999994</v>
       </c>
       <c r="B19" s="1">
         <v>21.752741</v>
       </c>
       <c r="C19" s="1">
-        <v>904.835000</v>
+        <v>904.83500000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.213000</v>
+        <v>-193.21299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>78320.316809</v>
+        <v>78320.316808999996</v>
       </c>
       <c r="G19" s="1">
         <v>21.755644</v>
       </c>
       <c r="H19" s="1">
-        <v>921.964000</v>
+        <v>921.96400000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.295000</v>
+        <v>-164.29499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>78330.845884</v>
+        <v>78330.845883999995</v>
       </c>
       <c r="L19" s="1">
         <v>21.758568</v>
       </c>
       <c r="M19" s="1">
-        <v>944.955000</v>
+        <v>944.95500000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.023000</v>
+        <v>-119.023</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>78341.762830</v>
+        <v>78341.762830000007</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.761601</v>
+        <v>21.761600999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>951.987000</v>
+        <v>951.98699999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.936000</v>
+        <v>-103.93600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>78352.221967</v>
+        <v>78352.221967000005</v>
       </c>
       <c r="V19" s="1">
-        <v>21.764506</v>
+        <v>21.764506000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>958.866000</v>
+        <v>958.86599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.407700</v>
+        <v>-90.407700000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>78362.695490</v>
+        <v>78362.695489999998</v>
       </c>
       <c r="AA19" s="1">
         <v>21.767415</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.428000</v>
+        <v>966.428</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.828500</v>
+        <v>-80.828500000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>78372.846643</v>
+        <v>78372.846642999997</v>
       </c>
       <c r="AF19" s="1">
         <v>21.770235</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.639000</v>
+        <v>971.63900000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.374300</v>
+        <v>-80.374300000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>78383.394858</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.773165</v>
+        <v>21.773164999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.699000</v>
+        <v>979.69899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.857400</v>
+        <v>-87.857399999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>78394.161688</v>
+        <v>78394.161687999993</v>
       </c>
       <c r="AP19" s="1">
         <v>21.776156</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.927000</v>
+        <v>988.92700000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.551000</v>
+        <v>-102.551</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>78405.272602</v>
+        <v>78405.272601999997</v>
       </c>
       <c r="AU19" s="1">
         <v>21.779242</v>
       </c>
       <c r="AV19" s="1">
-        <v>1000.310000</v>
+        <v>1000.31</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.931000</v>
+        <v>-123.931</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>78416.290203</v>
+        <v>78416.290202999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.782303</v>
+        <v>21.782302999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.539000</v>
+        <v>-142.53899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>78427.694252</v>
+        <v>78427.694252000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.785471</v>
+        <v>21.785471000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.883000</v>
+        <v>-226.88300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>78439.074956</v>
+        <v>78439.074955999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>21.788632</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.837000</v>
+        <v>-361.83699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>78450.687757</v>
+        <v>78450.687757000007</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.791858</v>
+        <v>21.791858000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.504000</v>
+        <v>-569.50400000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>78461.262996</v>
+        <v>78461.262996000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.794795</v>
+        <v>21.794795000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.350000</v>
+        <v>1413.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-790.632000</v>
+        <v>-790.63199999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>78472.118401</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.797811</v>
+        <v>21.797810999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1574.450000</v>
+        <v>1574.45</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1021.100000</v>
+        <v>-1021.1</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>78484.769218</v>
+        <v>78484.769218000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.801325</v>
+        <v>21.801324999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1559.240000</v>
+        <v>-1559.24</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>78310.241608</v>
+        <v>78310.241607999997</v>
       </c>
       <c r="B20" s="1">
-        <v>21.752845</v>
+        <v>21.752845000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>904.989000</v>
+        <v>904.98900000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-193.325000</v>
+        <v>-193.32499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>78320.694762</v>
+        <v>78320.694761999999</v>
       </c>
       <c r="G20" s="1">
-        <v>21.755749</v>
+        <v>21.755749000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>922.029000</v>
+        <v>922.029</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.680000</v>
+        <v>-164.68</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>78331.192123</v>
+        <v>78331.192123000001</v>
       </c>
       <c r="L20" s="1">
         <v>21.758664</v>
       </c>
       <c r="M20" s="1">
-        <v>945.005000</v>
+        <v>945.005</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.976000</v>
+        <v>-118.976</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>78342.109569</v>
+        <v>78342.109568999993</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.761697</v>
+        <v>21.761697000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>952.010000</v>
+        <v>952.01</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.013000</v>
+        <v>-104.01300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>78352.566223</v>
+        <v>78352.566223000002</v>
       </c>
       <c r="V20" s="1">
         <v>21.764602</v>
       </c>
       <c r="W20" s="1">
-        <v>958.960000</v>
+        <v>958.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.373900</v>
+        <v>-90.373900000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>78363.123550</v>
+        <v>78363.123550000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.767534</v>
+        <v>21.767534000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.304000</v>
+        <v>966.30399999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.787600</v>
+        <v>-80.787599999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>78373.146723</v>
+        <v>78373.146722999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.770319</v>
+        <v>21.770319000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.649000</v>
+        <v>971.649</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.329400</v>
+        <v>-80.329400000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>78383.678741</v>
+        <v>78383.678740999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.773244</v>
+        <v>21.773243999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.716000</v>
+        <v>979.71600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.809500</v>
+        <v>-87.8095</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>78394.520295</v>
+        <v>78394.520294999995</v>
       </c>
       <c r="AP20" s="1">
         <v>21.776256</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.939000</v>
+        <v>988.93899999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.556000</v>
+        <v>-102.556</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>78405.637631</v>
+        <v>78405.637631000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.779344</v>
+        <v>21.779343999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.899000</v>
+        <v>-123.899</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>78416.647818</v>
+        <v>78416.647817999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.782402</v>
+        <v>21.782402000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.539000</v>
+        <v>-142.53899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>78428.418378</v>
+        <v>78428.418378000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.785672</v>
+        <v>21.785672000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1055.370000</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.880000</v>
+        <v>-226.88</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>78439.511932</v>
+        <v>78439.511931999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>21.788753</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.826000</v>
+        <v>-361.82600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>78451.076157</v>
+        <v>78451.076157000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.791966</v>
+        <v>21.791965999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.560000</v>
+        <v>-569.55999999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>78461.673151</v>
+        <v>78461.673150999995</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.794909</v>
+        <v>21.794909000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV20" s="1">
-        <v>-790.640000</v>
+        <v>-790.64</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>78472.561328</v>
+        <v>78472.561327999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.797934</v>
+        <v>21.797934000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1574.490000</v>
+        <v>1574.49</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1021.120000</v>
+        <v>-1021.12</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>78485.620991</v>
+        <v>78485.620991000003</v>
       </c>
       <c r="CD20" s="1">
         <v>21.801561</v>
       </c>
       <c r="CE20" s="1">
-        <v>1976.980000</v>
+        <v>1976.98</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1559.980000</v>
+        <v>-1559.98</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>78310.582358</v>
       </c>
       <c r="B21" s="1">
-        <v>21.752940</v>
+        <v>21.752939999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.024000</v>
+        <v>905.024</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.275000</v>
+        <v>-193.27500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>78321.040014</v>
+        <v>78321.040013999998</v>
       </c>
       <c r="G21" s="1">
         <v>21.755844</v>
       </c>
       <c r="H21" s="1">
-        <v>922.278000</v>
+        <v>922.27800000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.640000</v>
+        <v>-164.64</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>78331.543754</v>
+        <v>78331.543753999998</v>
       </c>
       <c r="L21" s="1">
-        <v>21.758762</v>
+        <v>21.758762000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>944.977000</v>
+        <v>944.97699999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.943000</v>
+        <v>-118.943</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>78342.534636</v>
+        <v>78342.534635999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.761815</v>
+        <v>21.761814999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>951.973000</v>
+        <v>951.97299999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.971000</v>
+        <v>-103.971</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>78352.993743</v>
+        <v>78352.993742999999</v>
       </c>
       <c r="V21" s="1">
-        <v>21.764720</v>
+        <v>21.764720000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.851000</v>
+        <v>958.851</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.373000</v>
+        <v>-90.373000000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>78363.405264</v>
+        <v>78363.405264000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.767613</v>
+        <v>21.767613000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.455000</v>
+        <v>966.45500000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.845200</v>
+        <v>-80.845200000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>78373.490915</v>
+        <v>78373.490915000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.770414</v>
+        <v>21.770413999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.612000</v>
+        <v>971.61199999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.376400</v>
+        <v>-80.376400000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>78384.030437</v>
+        <v>78384.030436999994</v>
       </c>
       <c r="AK21" s="1">
         <v>21.773342</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.686000</v>
+        <v>979.68600000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.834200</v>
+        <v>-87.834199999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>78394.882406</v>
+        <v>78394.882406000004</v>
       </c>
       <c r="AP21" s="1">
         <v>21.776356</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.935000</v>
+        <v>988.93499999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.562000</v>
+        <v>-102.562</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>78406.365256</v>
+        <v>78406.365256000005</v>
       </c>
       <c r="AU21" s="1">
         <v>21.779546</v>
       </c>
       <c r="AV21" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.900000</v>
+        <v>-123.9</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>78417.367017</v>
+        <v>78417.367016999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.782602</v>
+        <v>21.782602000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.544000</v>
+        <v>-142.54400000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>78428.778009</v>
+        <v>78428.778009000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.785772</v>
+        <v>21.785772000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1055.370000</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.882000</v>
+        <v>-226.88200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>78440.125458</v>
+        <v>78440.125457999995</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.788924</v>
+        <v>21.788924000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.841000</v>
+        <v>-361.84100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>78451.500204</v>
+        <v>78451.500203999996</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.792083</v>
+        <v>21.792083000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.670000</v>
+        <v>1266.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.535000</v>
+        <v>-569.53499999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>78462.414702</v>
+        <v>78462.414701999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.795115</v>
+        <v>21.795114999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-790.688000</v>
+        <v>-790.68799999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>78472.988398</v>
+        <v>78472.988398000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.798052</v>
+        <v>21.798051999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.420000</v>
+        <v>1574.42</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1020.860000</v>
+        <v>-1020.86</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>78485.846212</v>
+        <v>78485.846212000004</v>
       </c>
       <c r="CD21" s="1">
         <v>21.801624</v>
       </c>
       <c r="CE21" s="1">
-        <v>1976.990000</v>
+        <v>1976.99</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1559.740000</v>
+        <v>-1559.74</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>78310.922614</v>
+        <v>78310.922613999996</v>
       </c>
       <c r="B22" s="1">
         <v>21.753034</v>
       </c>
       <c r="C22" s="1">
-        <v>905.093000</v>
+        <v>905.09299999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.158000</v>
+        <v>-193.15799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>78321.466040</v>
+        <v>78321.466039999999</v>
       </c>
       <c r="G22" s="1">
-        <v>21.755963</v>
+        <v>21.755963000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>922.159000</v>
+        <v>922.15899999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.846000</v>
+        <v>-164.846</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>78331.967867</v>
+        <v>78331.967866999999</v>
       </c>
       <c r="L22" s="1">
-        <v>21.758880</v>
+        <v>21.758880000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>945.209000</v>
+        <v>945.20899999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.991000</v>
+        <v>-118.991</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>78342.803468</v>
+        <v>78342.803467999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.761890</v>
+        <v>21.761890000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.968000</v>
+        <v>951.96799999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.998000</v>
+        <v>-103.998</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>78353.277951</v>
+        <v>78353.277950999996</v>
       </c>
       <c r="V22" s="1">
         <v>21.764799</v>
       </c>
       <c r="W22" s="1">
-        <v>958.819000</v>
+        <v>958.81899999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.467500</v>
+        <v>-90.467500000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>78363.753952</v>
+        <v>78363.753951999999</v>
       </c>
       <c r="AA22" s="1">
         <v>21.767709</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.502000</v>
+        <v>966.50199999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.849400</v>
+        <v>-80.849400000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>78373.843107</v>
+        <v>78373.843106999993</v>
       </c>
       <c r="AF22" s="1">
         <v>21.770512</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.585000</v>
+        <v>971.58500000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.296000</v>
+        <v>-80.296000000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>78384.377992</v>
+        <v>78384.377991999994</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.773438</v>
+        <v>21.773437999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.699000</v>
+        <v>979.69899999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.843100</v>
+        <v>-87.843100000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>78395.601110</v>
+        <v>78395.601110000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.776556</v>
+        <v>21.776555999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.938000</v>
+        <v>988.93799999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>78406.756609</v>
+        <v>78406.756609000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.779655</v>
+        <v>21.779655000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>78417.727144</v>
+        <v>78417.727144000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>21.782702</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.970000</v>
+        <v>1009.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.549000</v>
+        <v>-142.54900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>78429.140880</v>
+        <v>78429.140880000006</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.785872</v>
+        <v>21.785872000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1055.350000</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.881000</v>
+        <v>-226.881</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>78440.835263</v>
+        <v>78440.835263000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.789121</v>
+        <v>21.789121000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.853000</v>
+        <v>-361.85300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>78452.211009</v>
+        <v>78452.211009000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.792281</v>
+        <v>21.792280999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.516000</v>
+        <v>-569.51599999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>78462.531725</v>
+        <v>78462.531724999993</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.795148</v>
+        <v>21.795148000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.760000</v>
+        <v>-790.76</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>78473.411504</v>
+        <v>78473.411504000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.798170</v>
+        <v>21.798169999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.500000</v>
+        <v>1574.5</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1020.960000</v>
+        <v>-1020.96</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>78486.364532</v>
+        <v>78486.364532000007</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.801768</v>
+        <v>21.801767999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1978.640000</v>
+        <v>1978.64</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1559.920000</v>
+        <v>-1559.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>78311.347157</v>
+        <v>78311.347156999997</v>
       </c>
       <c r="B23" s="1">
         <v>21.753152</v>
       </c>
       <c r="C23" s="1">
-        <v>905.052000</v>
+        <v>905.05200000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.280000</v>
+        <v>-193.28</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>78321.734375</v>
       </c>
       <c r="G23" s="1">
-        <v>21.756037</v>
+        <v>21.756036999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>922.187000</v>
+        <v>922.18700000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.319000</v>
+        <v>-164.31899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>78332.248074</v>
+        <v>78332.248074000003</v>
       </c>
       <c r="L23" s="1">
         <v>21.758958</v>
       </c>
       <c r="M23" s="1">
-        <v>945.128000</v>
+        <v>945.12800000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.051000</v>
+        <v>-119.051</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>78343.156124</v>
+        <v>78343.156124000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.761988</v>
+        <v>21.761987999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>951.957000</v>
+        <v>951.95699999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.958000</v>
+        <v>-103.958</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>78353.619199</v>
+        <v>78353.619198999993</v>
       </c>
       <c r="V23" s="1">
-        <v>21.764894</v>
+        <v>21.764894000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>958.673000</v>
+        <v>958.673</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.333600</v>
+        <v>-90.333600000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>78364.102143</v>
+        <v>78364.102142999996</v>
       </c>
       <c r="AA23" s="1">
         <v>21.767806</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.489000</v>
+        <v>966.48900000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.849200</v>
+        <v>-80.849199999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>78374.530566</v>
+        <v>78374.530566000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.770703</v>
+        <v>21.770703000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.687000</v>
+        <v>971.68700000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.484900</v>
+        <v>-80.484899999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>78385.075972</v>
+        <v>78385.075972000006</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.773632</v>
+        <v>21.773631999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.709000</v>
+        <v>979.70899999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.845200</v>
+        <v>-87.845200000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>78395.959686</v>
+        <v>78395.959686000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.776655</v>
+        <v>21.776655000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.920000</v>
+        <v>988.92</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.555000</v>
+        <v>-102.55500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>78407.122646</v>
+        <v>78407.122646000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.779756</v>
+        <v>21.779755999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1000.340000</v>
+        <v>1000.34</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>78418.085723</v>
+        <v>78418.085722999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>21.782802</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.558000</v>
+        <v>-142.55799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>78429.816135</v>
+        <v>78429.816135000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.786060</v>
+        <v>21.786059999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1055.370000</v>
+        <v>1055.3699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.857000</v>
+        <v>-226.857</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>78441.273196</v>
+        <v>78441.273195999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.789243</v>
+        <v>21.789242999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.040000</v>
+        <v>1135.04</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.838000</v>
+        <v>-361.83800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>78452.335002</v>
+        <v>78452.335002000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.792315</v>
+        <v>21.792314999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.545000</v>
+        <v>-569.54499999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>78462.968206</v>
+        <v>78462.968206000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.795269</v>
+        <v>21.795269000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.843000</v>
+        <v>-790.84299999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>78473.843486</v>
+        <v>78473.843485999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.798290</v>
+        <v>21.798290000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.410000</v>
+        <v>1574.41</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1020.930000</v>
+        <v>-1020.93</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>78486.881853</v>
+        <v>78486.881852999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.801912</v>
+        <v>21.801912000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1977.950000</v>
+        <v>1977.95</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1559.990000</v>
+        <v>-1559.99</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>78311.625413</v>
+        <v>78311.625413000002</v>
       </c>
       <c r="B24" s="1">
-        <v>21.753229</v>
+        <v>21.753229000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>905.032000</v>
+        <v>905.03200000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-193.397000</v>
+        <v>-193.39699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>78322.078599</v>
       </c>
       <c r="G24" s="1">
-        <v>21.756133</v>
+        <v>21.756132999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>922.491000</v>
+        <v>922.49099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.672000</v>
+        <v>-164.672</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>78332.593321</v>
+        <v>78332.593320999993</v>
       </c>
       <c r="L24" s="1">
-        <v>21.759054</v>
+        <v>21.759053999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>945.181000</v>
+        <v>945.18100000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.886000</v>
+        <v>-118.886</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>78343.503291</v>
+        <v>78343.503291000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.762084</v>
+        <v>21.762084000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>951.952000</v>
+        <v>951.952</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.915000</v>
+        <v>-103.91500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>78353.961933</v>
+        <v>78353.961932999999</v>
       </c>
       <c r="V24" s="1">
         <v>21.764989</v>
       </c>
       <c r="W24" s="1">
-        <v>958.806000</v>
+        <v>958.80600000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.273100</v>
+        <v>-90.273099999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>78364.796543</v>
+        <v>78364.796543000004</v>
       </c>
       <c r="AA24" s="1">
         <v>21.767999</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.532000</v>
+        <v>966.53200000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.887900</v>
+        <v>-80.887900000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>78374.873761</v>
+        <v>78374.873760999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.770798</v>
+        <v>21.770797999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.559000</v>
+        <v>971.55899999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.367300</v>
+        <v>-80.3673</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>78385.423667</v>
+        <v>78385.423666999995</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.773729</v>
+        <v>21.773728999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.692000</v>
+        <v>979.69200000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.833500</v>
+        <v>-87.833500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>78396.320278</v>
+        <v>78396.320277999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.776756</v>
+        <v>21.776755999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.921000</v>
+        <v>988.92100000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.551000</v>
+        <v>-102.551</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>78407.799687</v>
+        <v>78407.799687000006</v>
       </c>
       <c r="AU24" s="1">
         <v>21.779944</v>
       </c>
       <c r="AV24" s="1">
-        <v>1000.320000</v>
+        <v>1000.32</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>78418.748902</v>
+        <v>78418.748902000007</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.782986</v>
+        <v>21.782986000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.548000</v>
+        <v>-142.548</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>78430.247656</v>
+        <v>78430.247656000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.786180</v>
+        <v>21.786180000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.883000</v>
+        <v>-226.88300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>78441.645689</v>
+        <v>78441.645688999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.789346</v>
+        <v>21.789345999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.060000</v>
+        <v>1135.06</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.827000</v>
+        <v>-361.827</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>78452.742683</v>
+        <v>78452.742683000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.792429</v>
+        <v>21.792428999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.527000</v>
+        <v>-569.52700000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>78463.379388</v>
+        <v>78463.379388000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.795383</v>
+        <v>21.795383000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.949000</v>
+        <v>-790.94899999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>78474.283934</v>
+        <v>78474.283934000006</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.798412</v>
+        <v>21.798411999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.450000</v>
+        <v>1574.45</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1020.980000</v>
+        <v>-1020.98</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>78487.433870</v>
+        <v>78487.433869999993</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.802065</v>
+        <v>21.802064999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1976.720000</v>
+        <v>1976.72</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1559.360000</v>
+        <v>-1559.36</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>78311.967895</v>
+        <v>78311.967894999994</v>
       </c>
       <c r="B25" s="1">
-        <v>21.753324</v>
+        <v>21.753323999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>904.963000</v>
+        <v>904.96299999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.286000</v>
+        <v>-193.286</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>78322.423816</v>
+        <v>78322.423815999995</v>
       </c>
       <c r="G25" s="1">
-        <v>21.756229</v>
+        <v>21.756229000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.262000</v>
+        <v>922.26199999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.522000</v>
+        <v>-164.52199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>78332.941481</v>
+        <v>78332.941481000002</v>
       </c>
       <c r="L25" s="1">
-        <v>21.759150</v>
+        <v>21.759150000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>945.120000</v>
+        <v>945.12</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.058000</v>
+        <v>-119.05800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>78344.202154</v>
+        <v>78344.202153999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.762278</v>
+        <v>21.762277999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>951.998000</v>
+        <v>951.99800000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.977000</v>
+        <v>-103.977</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>78354.649388</v>
+        <v>78354.649388000005</v>
       </c>
       <c r="V25" s="1">
-        <v>21.765180</v>
+        <v>21.765180000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>958.765000</v>
+        <v>958.76499999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.339400</v>
+        <v>-90.339399999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>78365.147214</v>
+        <v>78365.147213999997</v>
       </c>
       <c r="AA25" s="1">
         <v>21.768096</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.477000</v>
+        <v>966.47699999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.809200</v>
+        <v>-80.809200000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>78375.220961</v>
+        <v>78375.220960999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.770895</v>
+        <v>21.770894999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.546000</v>
+        <v>971.54600000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.171600</v>
+        <v>-80.171599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>78385.771363</v>
+        <v>78385.771363000007</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.773825</v>
+        <v>21.773824999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.679000</v>
+        <v>979.67899999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.862600</v>
+        <v>-87.8626</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>78396.996325</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.776943</v>
+        <v>21.776942999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.935000</v>
+        <v>988.93499999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>78408.251057</v>
+        <v>78408.251057000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.780070</v>
+        <v>21.780069999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1000.320000</v>
+        <v>1000.32</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>78419.196758</v>
+        <v>78419.196758000006</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.783110</v>
+        <v>21.783110000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.980000</v>
+        <v>1009.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.540000</v>
+        <v>-142.54</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>78430.609241</v>
+        <v>78430.609240999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.786280</v>
+        <v>21.786280000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.895000</v>
+        <v>-226.89500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>78442.022152</v>
+        <v>78442.022152000005</v>
       </c>
       <c r="BJ25" s="1">
         <v>21.789451</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.050000</v>
+        <v>1135.05</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.838000</v>
+        <v>-361.83800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>78453.142457</v>
+        <v>78453.142456999994</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.792540</v>
+        <v>21.792539999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.558000</v>
+        <v>-569.55799999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>78463.812924</v>
+        <v>78463.812923999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.795504</v>
+        <v>21.795504000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.480000</v>
+        <v>1413.48</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.926000</v>
+        <v>-790.92600000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>78474.706029</v>
+        <v>78474.706028999994</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.798529</v>
+        <v>21.798528999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1574.520000</v>
+        <v>1574.52</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1021.030000</v>
+        <v>-1021.03</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>78487.967564</v>
+        <v>78487.967564000006</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.802213</v>
+        <v>21.802212999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1978.430000</v>
+        <v>1978.43</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1560.020000</v>
+        <v>-1560.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>78312.304932</v>
+        <v>78312.304931999999</v>
       </c>
       <c r="B26" s="1">
         <v>21.753418</v>
       </c>
       <c r="C26" s="1">
-        <v>904.888000</v>
+        <v>904.88800000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.186000</v>
+        <v>-193.18600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>78323.113750</v>
+        <v>78323.113750000004</v>
       </c>
       <c r="G26" s="1">
-        <v>21.756420</v>
+        <v>21.756419999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>922.097000</v>
+        <v>922.09699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.497000</v>
+        <v>-164.49700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>78333.634392</v>
+        <v>78333.634392000007</v>
       </c>
       <c r="L26" s="1">
-        <v>21.759343</v>
+        <v>21.759343000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>945.024000</v>
+        <v>945.024</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.058000</v>
+        <v>-119.05800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>78344.550345</v>
+        <v>78344.550344999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.762375</v>
+        <v>21.762374999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>952.020000</v>
+        <v>952.02</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.983000</v>
+        <v>-103.983</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>78354.991163</v>
+        <v>78354.991162999999</v>
       </c>
       <c r="V26" s="1">
-        <v>21.765275</v>
+        <v>21.765274999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>958.824000</v>
+        <v>958.82399999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.321000</v>
+        <v>-90.320999999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>78365.497390</v>
+        <v>78365.497390000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.768194</v>
+        <v>21.768194000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.396000</v>
+        <v>966.39599999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.860600</v>
+        <v>-80.860600000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>78375.875680</v>
+        <v>78375.875679999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>21.771077</v>
+        <v>21.771076999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.545000</v>
+        <v>971.54499999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.244300</v>
+        <v>-80.244299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>78386.434019</v>
+        <v>78386.434018999993</v>
       </c>
       <c r="AK26" s="1">
         <v>21.774009</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.704000</v>
+        <v>979.70399999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.847800</v>
+        <v>-87.847800000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>78397.435781</v>
+        <v>78397.435780999993</v>
       </c>
       <c r="AP26" s="1">
         <v>21.777065</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.937000</v>
+        <v>988.93700000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>78408.615604</v>
+        <v>78408.615604000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.780171</v>
+        <v>21.780170999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1000.330000</v>
+        <v>1000.33</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.929000</v>
+        <v>-123.929</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>78419.554374</v>
+        <v>78419.554373999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.783210</v>
+        <v>21.78321</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.990000</v>
+        <v>1009.99</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.551000</v>
+        <v>-142.55099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>78430.973946</v>
+        <v>78430.973945999998</v>
       </c>
       <c r="BE26" s="1">
         <v>21.786382</v>
       </c>
       <c r="BF26" s="1">
-        <v>1055.360000</v>
+        <v>1055.3599999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.890000</v>
+        <v>-226.89</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>78442.452216</v>
+        <v>78442.452216000005</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.789570</v>
+        <v>21.789570000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.030000</v>
+        <v>1135.03</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.822000</v>
+        <v>-361.822</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>78453.569017</v>
+        <v>78453.569017000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.792658</v>
+        <v>21.792657999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.539000</v>
+        <v>-569.53899999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>78464.242432</v>
+        <v>78464.242431999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.795623</v>
+        <v>21.795622999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.987000</v>
+        <v>-790.98699999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>78475.138541</v>
+        <v>78475.138540999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.798650</v>
+        <v>21.798649999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1574.650000</v>
+        <v>1574.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1020.910000</v>
+        <v>-1020.91</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>78488.487371</v>
+        <v>78488.487370999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.802358</v>
+        <v>21.802358000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1977.850000</v>
+        <v>1977.85</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1560.120000</v>
+        <v>-1560.12</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>